--- a/Reports/Thesis Planning.xlsx
+++ b/Reports/Thesis Planning.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="41">
   <si>
     <t>Plan</t>
   </si>
@@ -349,7 +349,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -396,9 +396,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -6581,8 +6578,8 @@
   </sheetPr>
   <dimension ref="A2:AM34"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:AN35"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q5" sqref="Q5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -6615,16 +6612,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:39" ht="15" x14ac:dyDescent="0.25">
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
     </row>
     <row r="3" spans="1:39" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
       <c r="F3" s="4"/>
       <c r="AA3" s="12"/>
       <c r="AD3" s="1"/>
@@ -6635,9 +6632,9 @@
       <c r="AI3" s="6"/>
     </row>
     <row r="4" spans="1:39" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
       <c r="H4" s="7"/>
       <c r="I4" s="12" t="s">
         <v>0</v>
@@ -6681,106 +6678,106 @@
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
-      <c r="F8" s="18">
+      <c r="F8" s="17">
         <v>46</v>
       </c>
-      <c r="G8" s="18">
+      <c r="G8" s="17">
         <v>47</v>
       </c>
-      <c r="H8" s="18">
+      <c r="H8" s="17">
         <v>48</v>
       </c>
-      <c r="I8" s="18">
+      <c r="I8" s="17">
         <v>49</v>
       </c>
-      <c r="J8" s="18">
+      <c r="J8" s="17">
         <v>50</v>
       </c>
-      <c r="K8" s="18">
+      <c r="K8" s="17">
         <v>51</v>
       </c>
-      <c r="L8" s="18">
+      <c r="L8" s="17">
         <v>52</v>
       </c>
-      <c r="M8" s="18">
+      <c r="M8" s="17">
         <v>53</v>
       </c>
-      <c r="N8" s="18">
+      <c r="N8" s="17">
         <v>1</v>
       </c>
-      <c r="O8" s="18">
+      <c r="O8" s="17">
         <v>2</v>
       </c>
-      <c r="P8" s="18">
+      <c r="P8" s="17">
         <v>3</v>
       </c>
-      <c r="Q8" s="18">
+      <c r="Q8" s="17">
         <v>4</v>
       </c>
-      <c r="R8" s="18">
+      <c r="R8" s="17">
         <v>5</v>
       </c>
-      <c r="S8" s="18">
+      <c r="S8" s="17">
         <v>6</v>
       </c>
-      <c r="T8" s="18">
+      <c r="T8" s="17">
         <v>7</v>
       </c>
-      <c r="U8" s="18">
+      <c r="U8" s="17">
         <v>8</v>
       </c>
-      <c r="V8" s="18">
+      <c r="V8" s="17">
         <v>9</v>
       </c>
-      <c r="W8" s="18">
+      <c r="W8" s="17">
         <v>10</v>
       </c>
-      <c r="X8" s="18">
+      <c r="X8" s="17">
         <v>11</v>
       </c>
-      <c r="Y8" s="18">
+      <c r="Y8" s="17">
         <v>12</v>
       </c>
-      <c r="Z8" s="18">
+      <c r="Z8" s="17">
         <v>13</v>
       </c>
-      <c r="AA8" s="18">
+      <c r="AA8" s="17">
         <v>14</v>
       </c>
-      <c r="AB8" s="18">
+      <c r="AB8" s="17">
         <v>15</v>
       </c>
-      <c r="AC8" s="18">
+      <c r="AC8" s="17">
         <v>16</v>
       </c>
-      <c r="AD8" s="18">
+      <c r="AD8" s="17">
         <v>17</v>
       </c>
-      <c r="AE8" s="18">
+      <c r="AE8" s="17">
         <v>18</v>
       </c>
-      <c r="AF8" s="18">
+      <c r="AF8" s="17">
         <v>19</v>
       </c>
-      <c r="AG8" s="18">
+      <c r="AG8" s="17">
         <v>20</v>
       </c>
-      <c r="AH8" s="18">
+      <c r="AH8" s="17">
         <v>21</v>
       </c>
-      <c r="AI8" s="18">
+      <c r="AI8" s="17">
         <v>22</v>
       </c>
-      <c r="AJ8" s="18">
+      <c r="AJ8" s="17">
         <v>23</v>
       </c>
-      <c r="AK8" s="18">
+      <c r="AK8" s="17">
         <v>24</v>
       </c>
-      <c r="AL8" s="18">
+      <c r="AL8" s="17">
         <v>25</v>
       </c>
-      <c r="AM8" s="18">
+      <c r="AM8" s="17">
         <v>26</v>
       </c>
     </row>
@@ -6837,7 +6834,7 @@
       <c r="D11" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="O11" s="16"/>
+      <c r="O11" s="8"/>
     </row>
     <row r="12" spans="1:39" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12">
@@ -6875,9 +6872,8 @@
       <c r="K13" s="8"/>
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
-      <c r="O13" s="7" t="s">
-        <v>24</v>
-      </c>
+      <c r="O13" s="8"/>
+      <c r="P13" s="9"/>
       <c r="T13" s="7"/>
     </row>
     <row r="14" spans="1:39" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -6893,7 +6889,7 @@
       <c r="D14" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="O14" s="7"/>
+      <c r="O14" s="8"/>
       <c r="P14" s="7"/>
       <c r="U14" s="7"/>
       <c r="V14" s="7"/>
@@ -7084,7 +7080,7 @@
       <c r="B26" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C26" s="17" t="s">
+      <c r="C26" s="16" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="14" t="s">
@@ -8098,32 +8094,6 @@
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="136" priority="152">
-      <formula>MOD(COLUMN(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P13">
-    <cfRule type="expression" dxfId="135" priority="137">
-      <formula>PercentComplete</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="134" priority="138">
-      <formula>PercentCompleteBeyond</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="133" priority="139">
-      <formula>Actual</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="132" priority="140">
-      <formula>ActualBeyond</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="131" priority="141">
-      <formula>Plan</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="130" priority="142">
-      <formula>P$8=period_selected</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="129" priority="143">
-      <formula>MOD(COLUMN(),2)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="128" priority="144">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Reports/Thesis Planning.xlsx
+++ b/Reports/Thesis Planning.xlsx
@@ -418,120 +418,7 @@
     <cellStyle name="Period Highlight Control" xfId="7"/>
     <cellStyle name="Project Headers" xfId="4"/>
   </cellStyles>
-  <dxfs count="418">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <bottom style="thin">
-          <color theme="9" tint="0.59996337778862885"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
+  <dxfs count="410">
     <dxf>
       <fill>
         <patternFill>
@@ -6579,7 +6466,7 @@
   <dimension ref="A2:AM34"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q5" sqref="Q5"/>
+      <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -6890,7 +6777,7 @@
         <v>40</v>
       </c>
       <c r="O14" s="8"/>
-      <c r="P14" s="7"/>
+      <c r="P14" s="8"/>
       <c r="U14" s="7"/>
       <c r="V14" s="7"/>
     </row>
@@ -6907,8 +6794,8 @@
       <c r="D15" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="P15" s="7"/>
-      <c r="Q15" s="7"/>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="8"/>
       <c r="V15" s="7"/>
       <c r="W15" s="7"/>
     </row>
@@ -6925,7 +6812,7 @@
       <c r="D16" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="R16" s="7"/>
+      <c r="R16" s="8"/>
       <c r="S16" s="7"/>
       <c r="X16" s="7"/>
       <c r="Y16" s="7"/>
@@ -6971,8 +6858,8 @@
       <c r="D18" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="Q18" s="7"/>
-      <c r="R18" s="7"/>
+      <c r="Q18" s="8"/>
+      <c r="R18" s="8"/>
       <c r="S18" s="7"/>
       <c r="T18" s="7"/>
       <c r="U18" s="7"/>
@@ -7074,7 +6961,7 @@
       <c r="D25" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="P25" s="7"/>
+      <c r="P25" s="8"/>
     </row>
     <row r="26" spans="1:39" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="13" t="s">
@@ -7177,923 +7064,923 @@
   <mergeCells count="1">
     <mergeCell ref="B2:D4"/>
   </mergeCells>
-  <conditionalFormatting sqref="G23:AM23 F32 H32:O32 F33:K34 N33:AM34 O10:AM10 P24:AM24 F24:H24 F25:O30 Q29:AI29 Q27:AC27 Q28:AE28 Q30:AK30 J34:Q34 Q25:AM26 AF27:AM27 AG28:AM28 AM30 AL29:AM29 F22:AM22 Q31:AM32 P11:AM11 P20:AE20 AK20:AM20 Y15:AM15 AB16:AM16 AE18:AM18 M9:AM9 M12:AM12 F15:N15 F11:N11 F20:N20 V13:AM13 W14:AM14 F18:P18 F16:R16">
-    <cfRule type="expression" dxfId="417" priority="601">
+  <conditionalFormatting sqref="G23:AM23 F32 H32:O32 F33:K34 N33:AM34 O10:AM10 P24:AM24 F24:H24 F25:O30 Q29:AI29 Q27:AC27 Q28:AE28 Q30:AK30 J34:Q34 Q25:AM26 AF27:AM27 AG28:AM28 AM30 AL29:AM29 F22:AM22 Q31:AM32 P11:AM11 P20:AE20 AK20:AM20 Y15:AM15 AB16:AM16 AE18:AM18 M9:AM9 M12:AM12 F15:N15 F11:N11 F20:N20 V13:AM13 W14:AM14 F18:P18 F16:Q16">
+    <cfRule type="expression" dxfId="409" priority="601">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="416" priority="603">
+    <cfRule type="expression" dxfId="408" priority="603">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="415" priority="604">
+    <cfRule type="expression" dxfId="407" priority="604">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="414" priority="605">
+    <cfRule type="expression" dxfId="406" priority="605">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="413" priority="606">
+    <cfRule type="expression" dxfId="405" priority="606">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="412" priority="607">
+    <cfRule type="expression" dxfId="404" priority="607">
       <formula>F$8=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="411" priority="611">
+    <cfRule type="expression" dxfId="403" priority="611">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="410" priority="612">
+    <cfRule type="expression" dxfId="402" priority="612">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B35:AM35">
-    <cfRule type="expression" dxfId="409" priority="602">
+    <cfRule type="expression" dxfId="401" priority="602">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F8:AM8">
-    <cfRule type="expression" dxfId="408" priority="608">
+    <cfRule type="expression" dxfId="400" priority="608">
       <formula>F$8=period_selected</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10">
-    <cfRule type="expression" dxfId="407" priority="577">
+    <cfRule type="expression" dxfId="399" priority="577">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="406" priority="578">
+    <cfRule type="expression" dxfId="398" priority="578">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="405" priority="579">
+    <cfRule type="expression" dxfId="397" priority="579">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="404" priority="580">
+    <cfRule type="expression" dxfId="396" priority="580">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="403" priority="581">
+    <cfRule type="expression" dxfId="395" priority="581">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="402" priority="582">
+    <cfRule type="expression" dxfId="394" priority="582">
       <formula>G$8=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="401" priority="583">
+    <cfRule type="expression" dxfId="393" priority="583">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="400" priority="584">
+    <cfRule type="expression" dxfId="392" priority="584">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10">
-    <cfRule type="expression" dxfId="399" priority="569">
+    <cfRule type="expression" dxfId="391" priority="569">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="398" priority="570">
+    <cfRule type="expression" dxfId="390" priority="570">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="397" priority="571">
+    <cfRule type="expression" dxfId="389" priority="571">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="396" priority="572">
+    <cfRule type="expression" dxfId="388" priority="572">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="395" priority="573">
+    <cfRule type="expression" dxfId="387" priority="573">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="394" priority="574">
+    <cfRule type="expression" dxfId="386" priority="574">
       <formula>F$8=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="393" priority="575">
+    <cfRule type="expression" dxfId="385" priority="575">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="392" priority="576">
+    <cfRule type="expression" dxfId="384" priority="576">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I24:M24">
-    <cfRule type="expression" dxfId="391" priority="529">
+    <cfRule type="expression" dxfId="383" priority="529">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="390" priority="530">
+    <cfRule type="expression" dxfId="382" priority="530">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="389" priority="531">
+    <cfRule type="expression" dxfId="381" priority="531">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="388" priority="532">
+    <cfRule type="expression" dxfId="380" priority="532">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="387" priority="533">
+    <cfRule type="expression" dxfId="379" priority="533">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="386" priority="534">
+    <cfRule type="expression" dxfId="378" priority="534">
       <formula>I$8=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="385" priority="535">
+    <cfRule type="expression" dxfId="377" priority="535">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="384" priority="536">
+    <cfRule type="expression" dxfId="376" priority="536">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O24">
-    <cfRule type="expression" dxfId="383" priority="521">
+    <cfRule type="expression" dxfId="375" priority="521">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="382" priority="522">
+    <cfRule type="expression" dxfId="374" priority="522">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="381" priority="523">
+    <cfRule type="expression" dxfId="373" priority="523">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="380" priority="524">
+    <cfRule type="expression" dxfId="372" priority="524">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="379" priority="525">
+    <cfRule type="expression" dxfId="371" priority="525">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="378" priority="526">
+    <cfRule type="expression" dxfId="370" priority="526">
       <formula>O$8=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="377" priority="527">
+    <cfRule type="expression" dxfId="369" priority="527">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="376" priority="528">
+    <cfRule type="expression" dxfId="368" priority="528">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14:J14 F13:I13">
-    <cfRule type="expression" dxfId="375" priority="505">
+    <cfRule type="expression" dxfId="367" priority="505">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="374" priority="506">
+    <cfRule type="expression" dxfId="366" priority="506">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="373" priority="507">
+    <cfRule type="expression" dxfId="365" priority="507">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="372" priority="508">
+    <cfRule type="expression" dxfId="364" priority="508">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="371" priority="509">
+    <cfRule type="expression" dxfId="363" priority="509">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="370" priority="510">
+    <cfRule type="expression" dxfId="362" priority="510">
       <formula>F$8=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="369" priority="511">
+    <cfRule type="expression" dxfId="361" priority="511">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="368" priority="512">
+    <cfRule type="expression" dxfId="360" priority="512">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K14:N14">
-    <cfRule type="expression" dxfId="367" priority="497">
+    <cfRule type="expression" dxfId="359" priority="497">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="366" priority="498">
+    <cfRule type="expression" dxfId="358" priority="498">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="365" priority="499">
+    <cfRule type="expression" dxfId="357" priority="499">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="364" priority="500">
+    <cfRule type="expression" dxfId="356" priority="500">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="363" priority="501">
+    <cfRule type="expression" dxfId="355" priority="501">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="362" priority="502">
+    <cfRule type="expression" dxfId="354" priority="502">
       <formula>K$8=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="361" priority="503">
+    <cfRule type="expression" dxfId="353" priority="503">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="360" priority="504">
+    <cfRule type="expression" dxfId="352" priority="504">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F31:O31">
-    <cfRule type="expression" dxfId="359" priority="481">
+    <cfRule type="expression" dxfId="351" priority="481">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="358" priority="482">
+    <cfRule type="expression" dxfId="350" priority="482">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="357" priority="483">
+    <cfRule type="expression" dxfId="349" priority="483">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="356" priority="484">
+    <cfRule type="expression" dxfId="348" priority="484">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="355" priority="485">
+    <cfRule type="expression" dxfId="347" priority="485">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="354" priority="486">
+    <cfRule type="expression" dxfId="346" priority="486">
       <formula>F$8=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="353" priority="487">
+    <cfRule type="expression" dxfId="345" priority="487">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="352" priority="488">
+    <cfRule type="expression" dxfId="344" priority="488">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P26:P28">
-    <cfRule type="expression" dxfId="351" priority="473">
+    <cfRule type="expression" dxfId="343" priority="473">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="350" priority="474">
+    <cfRule type="expression" dxfId="342" priority="474">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="349" priority="475">
+    <cfRule type="expression" dxfId="341" priority="475">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="348" priority="476">
+    <cfRule type="expression" dxfId="340" priority="476">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="347" priority="477">
+    <cfRule type="expression" dxfId="339" priority="477">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="346" priority="478">
+    <cfRule type="expression" dxfId="338" priority="478">
       <formula>P$8=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="345" priority="479">
+    <cfRule type="expression" dxfId="337" priority="479">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="344" priority="480">
+    <cfRule type="expression" dxfId="336" priority="480">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P29:P32">
-    <cfRule type="expression" dxfId="343" priority="465">
+    <cfRule type="expression" dxfId="335" priority="465">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="342" priority="466">
+    <cfRule type="expression" dxfId="334" priority="466">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="341" priority="467">
+    <cfRule type="expression" dxfId="333" priority="467">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="340" priority="468">
+    <cfRule type="expression" dxfId="332" priority="468">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="339" priority="469">
+    <cfRule type="expression" dxfId="331" priority="469">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="338" priority="470">
+    <cfRule type="expression" dxfId="330" priority="470">
       <formula>P$8=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="337" priority="471">
+    <cfRule type="expression" dxfId="329" priority="471">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="336" priority="472">
+    <cfRule type="expression" dxfId="328" priority="472">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE27">
-    <cfRule type="expression" dxfId="335" priority="457">
+    <cfRule type="expression" dxfId="327" priority="457">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="334" priority="458">
+    <cfRule type="expression" dxfId="326" priority="458">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="333" priority="459">
+    <cfRule type="expression" dxfId="325" priority="459">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="332" priority="460">
+    <cfRule type="expression" dxfId="324" priority="460">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="331" priority="461">
+    <cfRule type="expression" dxfId="323" priority="461">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="330" priority="462">
+    <cfRule type="expression" dxfId="322" priority="462">
       <formula>AE$8=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="329" priority="463">
+    <cfRule type="expression" dxfId="321" priority="463">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="328" priority="464">
+    <cfRule type="expression" dxfId="320" priority="464">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK29">
-    <cfRule type="expression" dxfId="327" priority="449">
+    <cfRule type="expression" dxfId="319" priority="449">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="326" priority="450">
+    <cfRule type="expression" dxfId="318" priority="450">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="325" priority="451">
+    <cfRule type="expression" dxfId="317" priority="451">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="324" priority="452">
+    <cfRule type="expression" dxfId="316" priority="452">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="323" priority="453">
+    <cfRule type="expression" dxfId="315" priority="453">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="322" priority="454">
+    <cfRule type="expression" dxfId="314" priority="454">
       <formula>AK$8=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="321" priority="455">
+    <cfRule type="expression" dxfId="313" priority="455">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="320" priority="456">
+    <cfRule type="expression" dxfId="312" priority="456">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q13:S13">
-    <cfRule type="expression" dxfId="319" priority="441">
+    <cfRule type="expression" dxfId="311" priority="441">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="318" priority="442">
+    <cfRule type="expression" dxfId="310" priority="442">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="317" priority="443">
+    <cfRule type="expression" dxfId="309" priority="443">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="316" priority="444">
+    <cfRule type="expression" dxfId="308" priority="444">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="315" priority="445">
+    <cfRule type="expression" dxfId="307" priority="445">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="314" priority="446">
+    <cfRule type="expression" dxfId="306" priority="446">
       <formula>Q$8=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="313" priority="447">
+    <cfRule type="expression" dxfId="305" priority="447">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="312" priority="448">
+    <cfRule type="expression" dxfId="304" priority="448">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T14">
-    <cfRule type="expression" dxfId="311" priority="433">
+    <cfRule type="expression" dxfId="303" priority="433">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="310" priority="434">
+    <cfRule type="expression" dxfId="302" priority="434">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="309" priority="435">
+    <cfRule type="expression" dxfId="301" priority="435">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="308" priority="436">
+    <cfRule type="expression" dxfId="300" priority="436">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="307" priority="437">
+    <cfRule type="expression" dxfId="299" priority="437">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="306" priority="438">
+    <cfRule type="expression" dxfId="298" priority="438">
       <formula>T$8=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="305" priority="439">
+    <cfRule type="expression" dxfId="297" priority="439">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="304" priority="440">
+    <cfRule type="expression" dxfId="296" priority="440">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L9">
-    <cfRule type="expression" dxfId="303" priority="425">
+    <cfRule type="expression" dxfId="295" priority="425">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="302" priority="426">
+    <cfRule type="expression" dxfId="294" priority="426">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="301" priority="427">
+    <cfRule type="expression" dxfId="293" priority="427">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="300" priority="428">
+    <cfRule type="expression" dxfId="292" priority="428">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="299" priority="429">
+    <cfRule type="expression" dxfId="291" priority="429">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="298" priority="430">
+    <cfRule type="expression" dxfId="290" priority="430">
       <formula>L$8=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="297" priority="431">
+    <cfRule type="expression" dxfId="289" priority="431">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="296" priority="432">
+    <cfRule type="expression" dxfId="288" priority="432">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O15 O20">
-    <cfRule type="expression" dxfId="295" priority="393">
+    <cfRule type="expression" dxfId="287" priority="393">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="294" priority="394">
+    <cfRule type="expression" dxfId="286" priority="394">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="293" priority="395">
+    <cfRule type="expression" dxfId="285" priority="395">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="292" priority="396">
+    <cfRule type="expression" dxfId="284" priority="396">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="291" priority="397">
+    <cfRule type="expression" dxfId="283" priority="397">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="290" priority="398">
+    <cfRule type="expression" dxfId="282" priority="398">
       <formula>O$8=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="289" priority="399">
+    <cfRule type="expression" dxfId="281" priority="399">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="288" priority="400">
+    <cfRule type="expression" dxfId="280" priority="400">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S14">
-    <cfRule type="expression" dxfId="287" priority="353">
+    <cfRule type="expression" dxfId="279" priority="353">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="286" priority="354">
+    <cfRule type="expression" dxfId="278" priority="354">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="285" priority="355">
+    <cfRule type="expression" dxfId="277" priority="355">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="284" priority="356">
+    <cfRule type="expression" dxfId="276" priority="356">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="283" priority="357">
+    <cfRule type="expression" dxfId="275" priority="357">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="282" priority="358">
+    <cfRule type="expression" dxfId="274" priority="358">
       <formula>S$8=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="281" priority="359">
+    <cfRule type="expression" dxfId="273" priority="359">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="280" priority="360">
+    <cfRule type="expression" dxfId="272" priority="360">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="expression" dxfId="279" priority="337">
+    <cfRule type="expression" dxfId="271" priority="337">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="278" priority="338">
+    <cfRule type="expression" dxfId="270" priority="338">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="277" priority="339">
+    <cfRule type="expression" dxfId="269" priority="339">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="276" priority="340">
+    <cfRule type="expression" dxfId="268" priority="340">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="275" priority="341">
+    <cfRule type="expression" dxfId="267" priority="341">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="274" priority="342">
+    <cfRule type="expression" dxfId="266" priority="342">
       <formula>H$8=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="273" priority="343">
+    <cfRule type="expression" dxfId="265" priority="343">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="272" priority="344">
+    <cfRule type="expression" dxfId="264" priority="344">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K12:L12">
-    <cfRule type="expression" dxfId="271" priority="329">
+    <cfRule type="expression" dxfId="263" priority="329">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="270" priority="330">
+    <cfRule type="expression" dxfId="262" priority="330">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="269" priority="331">
+    <cfRule type="expression" dxfId="261" priority="331">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="268" priority="332">
+    <cfRule type="expression" dxfId="260" priority="332">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="267" priority="333">
+    <cfRule type="expression" dxfId="259" priority="333">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="266" priority="334">
+    <cfRule type="expression" dxfId="258" priority="334">
       <formula>K$8=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="265" priority="335">
+    <cfRule type="expression" dxfId="257" priority="335">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="264" priority="336">
+    <cfRule type="expression" dxfId="256" priority="336">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U16">
-    <cfRule type="expression" dxfId="263" priority="369">
+    <cfRule type="expression" dxfId="255" priority="369">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="262" priority="370">
+    <cfRule type="expression" dxfId="254" priority="370">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="261" priority="371">
+    <cfRule type="expression" dxfId="253" priority="371">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="260" priority="372">
+    <cfRule type="expression" dxfId="252" priority="372">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="259" priority="373">
+    <cfRule type="expression" dxfId="251" priority="373">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="258" priority="374">
+    <cfRule type="expression" dxfId="250" priority="374">
       <formula>U$8=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="257" priority="375">
+    <cfRule type="expression" dxfId="249" priority="375">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="256" priority="376">
+    <cfRule type="expression" dxfId="248" priority="376">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F19:AD19 AF19:AM19">
-    <cfRule type="expression" dxfId="255" priority="313">
+    <cfRule type="expression" dxfId="247" priority="313">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="254" priority="314">
+    <cfRule type="expression" dxfId="246" priority="314">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="253" priority="315">
+    <cfRule type="expression" dxfId="245" priority="315">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="252" priority="316">
+    <cfRule type="expression" dxfId="244" priority="316">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="251" priority="317">
+    <cfRule type="expression" dxfId="243" priority="317">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="250" priority="318">
+    <cfRule type="expression" dxfId="242" priority="318">
       <formula>F$8=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="249" priority="319">
+    <cfRule type="expression" dxfId="241" priority="319">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="248" priority="320">
+    <cfRule type="expression" dxfId="240" priority="320">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F21:AJ21 AL21:AM21">
-    <cfRule type="expression" dxfId="247" priority="305">
+    <cfRule type="expression" dxfId="239" priority="305">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="246" priority="306">
+    <cfRule type="expression" dxfId="238" priority="306">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="245" priority="307">
+    <cfRule type="expression" dxfId="237" priority="307">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="244" priority="308">
+    <cfRule type="expression" dxfId="236" priority="308">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="243" priority="309">
+    <cfRule type="expression" dxfId="235" priority="309">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="242" priority="310">
+    <cfRule type="expression" dxfId="234" priority="310">
       <formula>F$8=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="241" priority="311">
+    <cfRule type="expression" dxfId="233" priority="311">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="240" priority="312">
+    <cfRule type="expression" dxfId="232" priority="312">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q14">
-    <cfRule type="expression" dxfId="239" priority="297">
+    <cfRule type="expression" dxfId="231" priority="297">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="238" priority="298">
+    <cfRule type="expression" dxfId="230" priority="298">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="237" priority="299">
+    <cfRule type="expression" dxfId="229" priority="299">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="236" priority="300">
+    <cfRule type="expression" dxfId="228" priority="300">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="235" priority="301">
+    <cfRule type="expression" dxfId="227" priority="301">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="234" priority="302">
+    <cfRule type="expression" dxfId="226" priority="302">
       <formula>Q$8=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="233" priority="303">
+    <cfRule type="expression" dxfId="225" priority="303">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="232" priority="304">
+    <cfRule type="expression" dxfId="224" priority="304">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R14">
-    <cfRule type="expression" dxfId="231" priority="289">
+    <cfRule type="expression" dxfId="223" priority="289">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="230" priority="290">
+    <cfRule type="expression" dxfId="222" priority="290">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="229" priority="291">
+    <cfRule type="expression" dxfId="221" priority="291">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="228" priority="292">
+    <cfRule type="expression" dxfId="220" priority="292">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="227" priority="293">
+    <cfRule type="expression" dxfId="219" priority="293">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="226" priority="294">
+    <cfRule type="expression" dxfId="218" priority="294">
       <formula>R$8=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="225" priority="295">
+    <cfRule type="expression" dxfId="217" priority="295">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="224" priority="296">
+    <cfRule type="expression" dxfId="216" priority="296">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S15">
-    <cfRule type="expression" dxfId="223" priority="281">
+    <cfRule type="expression" dxfId="215" priority="281">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="222" priority="282">
+    <cfRule type="expression" dxfId="214" priority="282">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="221" priority="283">
+    <cfRule type="expression" dxfId="213" priority="283">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="220" priority="284">
+    <cfRule type="expression" dxfId="212" priority="284">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="219" priority="285">
+    <cfRule type="expression" dxfId="211" priority="285">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="218" priority="286">
+    <cfRule type="expression" dxfId="210" priority="286">
       <formula>S$8=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="217" priority="287">
+    <cfRule type="expression" dxfId="209" priority="287">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="216" priority="288">
+    <cfRule type="expression" dxfId="208" priority="288">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T15">
-    <cfRule type="expression" dxfId="215" priority="273">
+    <cfRule type="expression" dxfId="207" priority="273">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="214" priority="274">
+    <cfRule type="expression" dxfId="206" priority="274">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="213" priority="275">
+    <cfRule type="expression" dxfId="205" priority="275">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="212" priority="276">
+    <cfRule type="expression" dxfId="204" priority="276">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="211" priority="277">
+    <cfRule type="expression" dxfId="203" priority="277">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="210" priority="278">
+    <cfRule type="expression" dxfId="202" priority="278">
       <formula>T$8=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="209" priority="279">
+    <cfRule type="expression" dxfId="201" priority="279">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="208" priority="280">
+    <cfRule type="expression" dxfId="200" priority="280">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V16">
-    <cfRule type="expression" dxfId="207" priority="265">
+    <cfRule type="expression" dxfId="199" priority="265">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="206" priority="266">
+    <cfRule type="expression" dxfId="198" priority="266">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="205" priority="267">
+    <cfRule type="expression" dxfId="197" priority="267">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="204" priority="268">
+    <cfRule type="expression" dxfId="196" priority="268">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="203" priority="269">
+    <cfRule type="expression" dxfId="195" priority="269">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="202" priority="270">
+    <cfRule type="expression" dxfId="194" priority="270">
       <formula>V$8=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="201" priority="271">
+    <cfRule type="expression" dxfId="193" priority="271">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="200" priority="272">
+    <cfRule type="expression" dxfId="192" priority="272">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W16">
-    <cfRule type="expression" dxfId="199" priority="257">
+    <cfRule type="expression" dxfId="191" priority="257">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="198" priority="258">
+    <cfRule type="expression" dxfId="190" priority="258">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="197" priority="259">
+    <cfRule type="expression" dxfId="189" priority="259">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="196" priority="260">
+    <cfRule type="expression" dxfId="188" priority="260">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="195" priority="261">
+    <cfRule type="expression" dxfId="187" priority="261">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="194" priority="262">
+    <cfRule type="expression" dxfId="186" priority="262">
       <formula>W$8=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="193" priority="263">
+    <cfRule type="expression" dxfId="185" priority="263">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="192" priority="264">
+    <cfRule type="expression" dxfId="184" priority="264">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U15">
-    <cfRule type="expression" dxfId="191" priority="249">
+    <cfRule type="expression" dxfId="183" priority="249">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="190" priority="250">
+    <cfRule type="expression" dxfId="182" priority="250">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="189" priority="251">
+    <cfRule type="expression" dxfId="181" priority="251">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="188" priority="252">
+    <cfRule type="expression" dxfId="180" priority="252">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="187" priority="253">
+    <cfRule type="expression" dxfId="179" priority="253">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="186" priority="254">
+    <cfRule type="expression" dxfId="178" priority="254">
       <formula>U$8=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="185" priority="255">
+    <cfRule type="expression" dxfId="177" priority="255">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="184" priority="256">
+    <cfRule type="expression" dxfId="176" priority="256">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T16">
-    <cfRule type="expression" dxfId="183" priority="177">
+    <cfRule type="expression" dxfId="175" priority="177">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="182" priority="178">
+    <cfRule type="expression" dxfId="174" priority="178">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="181" priority="179">
+    <cfRule type="expression" dxfId="173" priority="179">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="180" priority="180">
+    <cfRule type="expression" dxfId="172" priority="180">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="179" priority="181">
+    <cfRule type="expression" dxfId="171" priority="181">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="178" priority="182">
+    <cfRule type="expression" dxfId="170" priority="182">
       <formula>T$8=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="177" priority="183">
+    <cfRule type="expression" dxfId="169" priority="183">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="176" priority="184">
+    <cfRule type="expression" dxfId="168" priority="184">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N13">
-    <cfRule type="expression" dxfId="175" priority="209">
+    <cfRule type="expression" dxfId="167" priority="209">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="174" priority="210">
+    <cfRule type="expression" dxfId="166" priority="210">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="173" priority="211">
+    <cfRule type="expression" dxfId="165" priority="211">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="172" priority="212">
+    <cfRule type="expression" dxfId="164" priority="212">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="171" priority="213">
+    <cfRule type="expression" dxfId="163" priority="213">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="170" priority="214">
+    <cfRule type="expression" dxfId="162" priority="214">
       <formula>N$8=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="169" priority="215">
+    <cfRule type="expression" dxfId="161" priority="215">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="168" priority="216">
+    <cfRule type="expression" dxfId="160" priority="216">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X15">
-    <cfRule type="expression" dxfId="167" priority="161">
+    <cfRule type="expression" dxfId="159" priority="161">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="166" priority="162">
+    <cfRule type="expression" dxfId="158" priority="162">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="165" priority="163">
+    <cfRule type="expression" dxfId="157" priority="163">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="164" priority="164">
+    <cfRule type="expression" dxfId="156" priority="164">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="163" priority="165">
+    <cfRule type="expression" dxfId="155" priority="165">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="162" priority="166">
+    <cfRule type="expression" dxfId="154" priority="166">
       <formula>X$8=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="161" priority="167">
+    <cfRule type="expression" dxfId="153" priority="167">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="160" priority="168">
+    <cfRule type="expression" dxfId="152" priority="168">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R15">
-    <cfRule type="expression" dxfId="159" priority="185">
+    <cfRule type="expression" dxfId="151" priority="185">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="158" priority="186">
+    <cfRule type="expression" dxfId="150" priority="186">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="157" priority="187">
+    <cfRule type="expression" dxfId="149" priority="187">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="156" priority="188">
+    <cfRule type="expression" dxfId="148" priority="188">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="155" priority="189">
+    <cfRule type="expression" dxfId="147" priority="189">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="154" priority="190">
+    <cfRule type="expression" dxfId="146" priority="190">
       <formula>R$8=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="153" priority="191">
+    <cfRule type="expression" dxfId="145" priority="191">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="152" priority="192">
+    <cfRule type="expression" dxfId="144" priority="192">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA16">
-    <cfRule type="expression" dxfId="151" priority="169">
+    <cfRule type="expression" dxfId="143" priority="169">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="150" priority="170">
+    <cfRule type="expression" dxfId="142" priority="170">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="149" priority="171">
+    <cfRule type="expression" dxfId="141" priority="171">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="148" priority="172">
+    <cfRule type="expression" dxfId="140" priority="172">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="147" priority="173">
+    <cfRule type="expression" dxfId="139" priority="173">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="146" priority="174">
+    <cfRule type="expression" dxfId="138" priority="174">
       <formula>AA$8=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="145" priority="175">
+    <cfRule type="expression" dxfId="137" priority="175">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="144" priority="176">
+    <cfRule type="expression" dxfId="136" priority="176">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U13">
-    <cfRule type="expression" dxfId="143" priority="145">
+    <cfRule type="expression" dxfId="135" priority="145">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="142" priority="146">
+    <cfRule type="expression" dxfId="134" priority="146">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="141" priority="147">
+    <cfRule type="expression" dxfId="133" priority="147">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="140" priority="148">
+    <cfRule type="expression" dxfId="132" priority="148">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="139" priority="149">
+    <cfRule type="expression" dxfId="131" priority="149">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="138" priority="150">
+    <cfRule type="expression" dxfId="130" priority="150">
       <formula>U$8=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="137" priority="151">
+    <cfRule type="expression" dxfId="129" priority="151">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="136" priority="152">
+    <cfRule type="expression" dxfId="128" priority="152">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Reports/Thesis Planning.xlsx
+++ b/Reports/Thesis Planning.xlsx
@@ -6466,7 +6466,7 @@
   <dimension ref="A2:AM34"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+      <selection activeCell="A16" sqref="A16:XFD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
